--- a/database/seeders/data/APPAREL.xlsx
+++ b/database/seeders/data/APPAREL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\oxxo\database\seeders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36901073-4018-493A-88BE-34527C464D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF73563-B4A0-47B9-9C99-5302C8BF0030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B694FFA-8F0D-4005-85D9-C0549B8934F0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Suit atas</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>ITEM</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>PO</t>
   </si>
 </sst>
 </file>
@@ -502,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7378663D-0ABD-4BBB-A7CB-349FC8DD641F}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,199 +519,433 @@
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>69000</v>
+      </c>
+      <c r="C2">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>53000</v>
+      </c>
+      <c r="C3">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>71000</v>
+      </c>
+      <c r="C4">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>102000</v>
+      </c>
+      <c r="C5">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>127000</v>
+      </c>
+      <c r="C6">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>51000</v>
+      </c>
+      <c r="C7">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>51000</v>
+      </c>
+      <c r="C8">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>51000</v>
+      </c>
+      <c r="C9">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>62000</v>
+      </c>
+      <c r="C10">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>71000</v>
+      </c>
+      <c r="C11">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>96000</v>
+      </c>
+      <c r="C12">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>51000</v>
+      </c>
+      <c r="C13">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>59000</v>
+      </c>
+      <c r="C14">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>76000</v>
+      </c>
+      <c r="C15">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>65000</v>
+      </c>
+      <c r="C16">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>46000</v>
+      </c>
+      <c r="C17">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>46000</v>
+      </c>
+      <c r="C18">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>46000</v>
+      </c>
+      <c r="C19">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>66000</v>
+      </c>
+      <c r="C20">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>67000</v>
+      </c>
+      <c r="C21">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>59000</v>
+      </c>
+      <c r="C22">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>102000</v>
+      </c>
+      <c r="C23">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>45000</v>
+      </c>
+      <c r="C24">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>34000</v>
+      </c>
+      <c r="C25">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>54000</v>
+      </c>
+      <c r="C26">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>77000</v>
+      </c>
+      <c r="C27">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>38500</v>
+      </c>
+      <c r="C28">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>77000</v>
+      </c>
+      <c r="C29">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>155000</v>
+      </c>
+      <c r="C30">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>155000</v>
+      </c>
+      <c r="C31">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>295000</v>
+      </c>
+      <c r="C32">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>360000</v>
+      </c>
+      <c r="C33">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>725000</v>
+      </c>
+      <c r="C34">
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>980000</v>
+      </c>
+      <c r="C35">
+        <v>930000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>365000</v>
+      </c>
+      <c r="C36">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>290000</v>
+      </c>
+      <c r="C37">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>260000</v>
+      </c>
+      <c r="C38">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
+      </c>
+      <c r="B39">
+        <v>255000</v>
+      </c>
+      <c r="C39">
+        <v>240000</v>
       </c>
     </row>
   </sheetData>
